--- a/biology/Histoire de la zoologie et de la botanique/George_Robert_Milne_Murray/George_Robert_Milne_Murray.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/George_Robert_Milne_Murray/George_Robert_Milne_Murray.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Robert Milne Murray est un botaniste britannique, né le 11 novembre 1858 à Arbroath en Écosse et mort le 16 décembre 1911.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de George Murray et de Margaret Sayles. Il étudie auprès d’Heinrich Anton de Bary (1831-1888) à Strasbourg en 1875. Il se marie à Helen Welsh en 1884, union dont il aura une fille et un fils. Il devient conservateur-assistant au département de botanique au British Museum en 1876, puis conservateur de 1895 à 1905.
 Il enseigne la botanique à l’école de médecine du St. George’s Hospital de 1882 à 1886 puis au Royal Veterinary College de 1890 à 1895. Il participe, comme naturaliste, à l’expédition dans les Caraïbes destinée à observation l’éclipse de 1886 et est le directeur scientifique de l’expédition en Antarctique en 1901.
